--- a/Excel/auth_64/main/06/s04/cmn.xlsx
+++ b/Excel/auth_64/main/06/s04/cmn.xlsx
@@ -150,7 +150,7 @@
     <t>She came to Sunflower every month\nwith letters and presents from my mom.</t>
   </si>
   <si>
-    <t>Ela veio no Girassol todo mês\ncom as cartas e presentes da minha mãe.</t>
+    <t>Ela foi no Sunflower todo mês\ncom as cartas e presentes da minha mãe.</t>
   </si>
   <si>
     <t>What?</t>
@@ -165,7 +165,7 @@
     <t>You were at Sunflower?</t>
   </si>
   <si>
-    <t>Você é do Girassol?</t>
+    <t>Você é do Sunflower?</t>
   </si>
   <si>
     <t>Mm-hmm.</t>
@@ -559,7 +559,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -570,7 +570,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -581,7 +581,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -614,7 +614,7 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -625,7 +625,7 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -647,7 +647,7 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -658,7 +658,7 @@
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -702,7 +702,7 @@
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -735,7 +735,7 @@
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -757,7 +757,7 @@
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -790,7 +790,7 @@
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -812,7 +812,7 @@
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -856,7 +856,7 @@
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -867,7 +867,7 @@
       <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -878,7 +878,7 @@
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -900,7 +900,7 @@
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -911,7 +911,7 @@
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -922,7 +922,7 @@
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -944,7 +944,7 @@
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
       <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -966,7 +966,7 @@
       <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -988,7 +988,7 @@
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
       <c r="B42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       <c r="B43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="B45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       <c r="B46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       <c r="B47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>87</v>
       </c>
     </row>
